--- a/Config/DataTables/Datas/demo.xlsx
+++ b/Config/DataTables/Datas/demo.xlsx
@@ -1716,116 +1716,6 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5">
-        <v>1001</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6">
-        <v>1002</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -3948,148 +3838,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
-  <cols>
-    <col min="3" max="3" width="10.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="10.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5">
-        <v>1001</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6">
-        <v>1002</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>1003</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8">
-        <v>1004</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>1002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -5512,964 +5260,6 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:O2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="10.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="10.8571428571429" customWidth="1"/>
-    <col min="9" max="10" width="9.57142857142857"/>
-    <col min="11" max="11" width="16.5714285714286" customWidth="1"/>
-    <col min="12" max="12" width="21.5714285714286" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5">
-        <v>1001</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>10000</v>
-      </c>
-      <c r="G5">
-        <v>10000</v>
-      </c>
-      <c r="H5">
-        <v>12.5</v>
-      </c>
-      <c r="I5">
-        <v>112233.5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6">
-        <v>1002</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>101</v>
-      </c>
-      <c r="F6">
-        <v>10001</v>
-      </c>
-      <c r="G6">
-        <v>10001</v>
-      </c>
-      <c r="H6">
-        <v>13.5</v>
-      </c>
-      <c r="I6">
-        <v>112234.5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7">
-        <v>1003</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>102</v>
-      </c>
-      <c r="F7">
-        <v>10002</v>
-      </c>
-      <c r="G7">
-        <v>10002</v>
-      </c>
-      <c r="H7">
-        <v>14.5</v>
-      </c>
-      <c r="I7">
-        <v>112235.5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8">
-        <v>1004</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>103</v>
-      </c>
-      <c r="F8">
-        <v>10003</v>
-      </c>
-      <c r="G8">
-        <v>10003</v>
-      </c>
-      <c r="H8">
-        <v>15.5</v>
-      </c>
-      <c r="I8">
-        <v>112236.5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9">
-        <v>1005</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>104</v>
-      </c>
-      <c r="F9">
-        <v>10004</v>
-      </c>
-      <c r="G9">
-        <v>10004</v>
-      </c>
-      <c r="H9">
-        <v>16.5</v>
-      </c>
-      <c r="I9">
-        <v>112237.5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10">
-        <v>1006</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S10"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="10.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="10.8571428571429" customWidth="1"/>
-    <col min="9" max="10" width="9.57142857142857"/>
-    <col min="11" max="11" width="21.5714285714286" customWidth="1"/>
-    <col min="13" max="13" width="9.57142857142857" customWidth="1"/>
-    <col min="14" max="14" width="7.57142857142857" customWidth="1"/>
-    <col min="15" max="15" width="10.2857142857143" customWidth="1"/>
-    <col min="16" max="16" width="10.5714285714286" customWidth="1"/>
-    <col min="17" max="17" width="12.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5">
-        <v>1001</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6">
-        <v>1002</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>101</v>
-      </c>
-      <c r="F6">
-        <v>10001</v>
-      </c>
-      <c r="G6">
-        <v>10001</v>
-      </c>
-      <c r="H6">
-        <v>13.5</v>
-      </c>
-      <c r="I6">
-        <v>112234.5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6">
-        <v>1001</v>
-      </c>
-      <c r="O6">
-        <v>10</v>
-      </c>
-      <c r="P6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>71</v>
-      </c>
-      <c r="R6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7">
-        <v>1003</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>102</v>
-      </c>
-      <c r="F7">
-        <v>10002</v>
-      </c>
-      <c r="G7">
-        <v>10002</v>
-      </c>
-      <c r="H7">
-        <v>14.5</v>
-      </c>
-      <c r="I7">
-        <v>112235.5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" t="s">
-        <v>69</v>
-      </c>
-      <c r="N7">
-        <v>1002</v>
-      </c>
-      <c r="O7">
-        <v>10</v>
-      </c>
-      <c r="P7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>74</v>
-      </c>
-      <c r="R7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19">
-      <c r="B8">
-        <v>1004</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>103</v>
-      </c>
-      <c r="F8">
-        <v>10003</v>
-      </c>
-      <c r="G8">
-        <v>10003</v>
-      </c>
-      <c r="H8">
-        <v>15.5</v>
-      </c>
-      <c r="I8">
-        <v>112236.5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N8">
-        <v>1003</v>
-      </c>
-      <c r="O8">
-        <v>10</v>
-      </c>
-      <c r="P8" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>76</v>
-      </c>
-      <c r="R8">
-        <v>10</v>
-      </c>
-      <c r="S8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19">
-      <c r="B9">
-        <v>1005</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>104</v>
-      </c>
-      <c r="F9">
-        <v>10004</v>
-      </c>
-      <c r="G9">
-        <v>10004</v>
-      </c>
-      <c r="H9">
-        <v>16.5</v>
-      </c>
-      <c r="I9">
-        <v>112237.5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9">
-        <v>1004</v>
-      </c>
-      <c r="O9">
-        <v>10</v>
-      </c>
-      <c r="P9" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>78</v>
-      </c>
-      <c r="R9">
-        <v>20</v>
-      </c>
-      <c r="S9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19">
-      <c r="B10">
-        <v>1006</v>
-      </c>
-      <c r="M10" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10">
-        <v>1005</v>
-      </c>
-      <c r="O10">
-        <v>10</v>
-      </c>
-      <c r="P10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R10">
-        <v>21</v>
-      </c>
-      <c r="S10">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
-  <cols>
-    <col min="3" max="3" width="12.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6">
-        <v>1001</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7">
-        <v>1002</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8">
-        <v>1003</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9">
-        <v>1004</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10">
-        <v>1005</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11">
-        <v>1006</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12">
-        <v>1007</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
